--- a/佐藤司update用/チーム共同開発.xlsx
+++ b/佐藤司update用/チーム共同開発.xlsx
@@ -1168,8 +1168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EB21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AL4" sqref="AL4"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AL5" sqref="AL5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2169,7 +2169,9 @@
       <c r="AK4" s="12">
         <v>1</v>
       </c>
-      <c r="AL4" s="12"/>
+      <c r="AL4" s="12">
+        <v>1</v>
+      </c>
       <c r="AM4" s="12"/>
       <c r="AN4" s="12"/>
       <c r="AO4" s="12"/>

--- a/佐藤司update用/チーム共同開発.xlsx
+++ b/佐藤司update用/チーム共同開発.xlsx
@@ -1168,8 +1168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EB21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AL5" sqref="AL5"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AM6" sqref="AM6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2138,7 +2138,8 @@
         <v>9</v>
       </c>
       <c r="L4" s="7">
-        <v>1</v>
+        <f>SUM(M4:EB4)</f>
+        <v>4</v>
       </c>
       <c r="M4" s="12"/>
       <c r="N4" s="12"/>
@@ -2172,7 +2173,9 @@
       <c r="AL4" s="12">
         <v>1</v>
       </c>
-      <c r="AM4" s="12"/>
+      <c r="AM4" s="12">
+        <v>1</v>
+      </c>
       <c r="AN4" s="12"/>
       <c r="AO4" s="12"/>
       <c r="AP4" s="12"/>
@@ -2295,7 +2298,10 @@
       <c r="K5" s="7">
         <v>30</v>
       </c>
-      <c r="L5" s="7"/>
+      <c r="L5" s="7">
+        <f t="shared" ref="L5:L11" si="0">SUM(M5:EB5)</f>
+        <v>2</v>
+      </c>
       <c r="M5" s="12"/>
       <c r="N5" s="12"/>
       <c r="O5" s="12"/>
@@ -2322,7 +2328,9 @@
       <c r="AJ5" s="12"/>
       <c r="AK5" s="12"/>
       <c r="AL5" s="12"/>
-      <c r="AM5" s="12"/>
+      <c r="AM5" s="12">
+        <v>2</v>
+      </c>
       <c r="AN5" s="12"/>
       <c r="AO5" s="12"/>
       <c r="AP5" s="12"/>
@@ -2441,7 +2449,10 @@
       <c r="K6" s="7">
         <v>60</v>
       </c>
-      <c r="L6" s="7"/>
+      <c r="L6" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
@@ -2587,7 +2598,10 @@
       <c r="K7" s="7">
         <v>30</v>
       </c>
-      <c r="L7" s="7"/>
+      <c r="L7" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M7" s="12"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -2735,7 +2749,10 @@
       <c r="K8" s="7">
         <v>9</v>
       </c>
-      <c r="L8" s="7"/>
+      <c r="L8" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M8" s="12"/>
       <c r="N8" s="12"/>
       <c r="O8" s="12"/>
@@ -2883,7 +2900,10 @@
       <c r="K9" s="7">
         <v>15</v>
       </c>
-      <c r="L9" s="7"/>
+      <c r="L9" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M9" s="12"/>
       <c r="N9" s="12"/>
       <c r="O9" s="12"/>
@@ -3033,7 +3053,10 @@
       <c r="K10" s="7">
         <v>12</v>
       </c>
-      <c r="L10" s="7"/>
+      <c r="L10" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M10" s="12"/>
       <c r="N10" s="12"/>
       <c r="O10" s="12"/>
@@ -3179,7 +3202,10 @@
       <c r="K11" s="7">
         <v>15</v>
       </c>
-      <c r="L11" s="7"/>
+      <c r="L11" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M11" s="12"/>
       <c r="N11" s="12"/>
       <c r="O11" s="12"/>
@@ -3320,7 +3346,10 @@
         <f>SUM(K4:K11)</f>
         <v>180</v>
       </c>
-      <c r="L12" s="7"/>
+      <c r="L12" s="7">
+        <f>SUM(L4:L11)</f>
+        <v>6</v>
+      </c>
       <c r="M12" s="12"/>
       <c r="N12" s="12"/>
       <c r="O12" s="12"/>
